--- a/現正熱映.xlsx
+++ b/現正熱映.xlsx
@@ -453,29 +453,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>神鬼戰士II</t>
+          <t>海洋奇緣2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>數位, IMAX, GC 數位, 4DX, A+</t>
+          <t>數位, IMAX, GC 數位, 4DX, MUCROWN</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>紅色一號</t>
+          <t>魔法壞女巫</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,97 +487,97 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>猛毒最終章：最後一舞</t>
+          <t>神鬼戰士II</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>數位, GC 數位, MAPPA, A+, MUCROWN</t>
+          <t>數位, IMAX, GC 數位, 4DX, A+</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>劇場版 OVERLORD 聖王國篇</t>
+          <t>紅色一號</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>數位, IMAX</t>
+          <t>數位, GC 數位, MAPPA</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>荒野機器人</t>
+          <t>猛毒最終章：最後一舞</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-23</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>數位, A+</t>
+          <t>數位, GC 數位, MAPPA, TITAN</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>鬼聲泣2</t>
+          <t>焚城</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-11-08</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>數位</t>
+          <t>數位, GC 數位, MAPPA</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>懼裂</t>
+          <t>荒野機器人</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-10</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>數位, A+</t>
+          <t>數位</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>G6-世界 12 強棒球錦標賽-現場直播</t>
+          <t>SEVENTEEN [RIGHT HERE] WORLD TOUR IN JAPAN 現場直播</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024-11-18</t>
+          <t>2024-12-14</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -589,29 +589,29 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>G5-世界 12 強棒球錦標賽-現場直播</t>
+          <t>Highlight: Lights Go On</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024-11-17</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LIVE</t>
+          <t>數位</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>G4-世界 12 強棒球錦標賽-現場直播</t>
+          <t>B_Project SEKAI COLORFUL LIVE 4th - Unison - 現場直播</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024-11-16</t>
+          <t>2024-12-15</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -623,12 +623,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>G3-世界 12 強棒球錦標賽-現場直播</t>
+          <t>A_Project SEKAI COLORFUL LIVE  4th - Unison - 現場直播</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>2024-12-15</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -640,126 +640,126 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>G2-世界 12 強棒球錦標賽-現場直播</t>
+          <t>hololive 5th fes. Capture the Moment 應援觀影會</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-12-14</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>LIVE</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>G1-世界 12 強棒球錦標賽-現場直播</t>
+          <t>CANDY STAR FIRST CINEMA LIVE 原創公演暨見面會</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>LIVE</t>
+          <t>ART</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>焚城</t>
+          <t>羽生結弦 ICE STORY 3rd -Echoes of Life- 巡演 現場直播</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-12-07</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>數位, GC 數位, MAPPA, 特別場</t>
+          <t>LIVE</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>刀劍神域劇場版 序列爭戰</t>
+          <t>早安少女組'24冬季巡演WE CAN DANCE〜Blå Eld〜⽯⽥亜佑美-畢業公演-現場直播</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>數位, 4DX</t>
+          <t>LIVE</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>乒乓男孩</t>
+          <t>ANGERME 10周年2024秋季巡演「ROOTS」川村文乃-畢業公演-☆KIRAKIRA☆現場直播</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>數位, 見面場</t>
+          <t>LIVE</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Laufey's A Night At The Symphony</t>
+          <t>MINI MAH</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PRE, IMAX PRE</t>
+          <t>ART</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>B-音樂劇《刀劍亂舞》祝玖壽-亂舞音曲祭-現場直播</t>
+          <t>Laufey's A Night At The Symphony</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>LIVE</t>
+          <t>PRE, IMAX PRE</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>寶塚歌劇　星組東京寶塚劇場公演千秋樂『失憶的總理大臣！』『Tiara Azul ─Destino─（藍色皇冠 ─命運─）』現場直播</t>
+          <t>B-音樂劇《刀劍亂舞》祝玖壽-亂舞音曲祭-現場直播</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -776,12 +776,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>D3-偶像夢幻祭!! DREAM LIVE -9th Tour “Trapezium #Orion”- 現場直播</t>
+          <t>寶塚歌劇　星組東京寶塚劇場公演千秋樂『失憶的總理大臣！』『Tiara Azul ─Destino─（藍色皇冠 ─命運─）』現場直播</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
